--- a/thesis/thesis-figure/data.xlsx
+++ b/thesis/thesis-figure/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Project\master-thesis\thesis\thesis-figure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6030" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="集群空闲情况" sheetId="1" r:id="rId1"/>
@@ -137,6 +142,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1371,13 +1379,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154648576"/>
-        <c:axId val="154650496"/>
+        <c:axId val="243317904"/>
+        <c:axId val="243305488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154648576"/>
+        <c:axId val="243317904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154650496"/>
+        <c:crossAx val="243305488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1414,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154650496"/>
+        <c:axId val="243305488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154648576"/>
+        <c:crossAx val="243317904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2866,13 +2873,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155630592"/>
-        <c:axId val="162071680"/>
+        <c:axId val="243445200"/>
+        <c:axId val="243193744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155630592"/>
+        <c:axId val="243445200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,13 +2900,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162071680"/>
+        <c:crossAx val="243193744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2908,7 +2913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162071680"/>
+        <c:axId val="243193744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,21 +2936,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155630592"/>
+        <c:crossAx val="243445200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3088,11 +3091,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162109696"/>
-        <c:axId val="162111872"/>
+        <c:axId val="242144504"/>
+        <c:axId val="242145288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162109696"/>
+        <c:axId val="242144504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,13 +3117,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162111872"/>
+        <c:crossAx val="242145288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3128,7 +3130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162111872"/>
+        <c:axId val="242145288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,21 +3153,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162109696"/>
+        <c:crossAx val="242144504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3308,11 +3308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164812288"/>
-        <c:axId val="164814208"/>
+        <c:axId val="242146072"/>
+        <c:axId val="242146856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164812288"/>
+        <c:axId val="242146072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,13 +3334,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164814208"/>
+        <c:crossAx val="242146856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3348,7 +3347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164814208"/>
+        <c:axId val="242146856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,21 +3370,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164812288"/>
+        <c:crossAx val="242146072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3594,11 +3591,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162436992"/>
-        <c:axId val="162443264"/>
+        <c:axId val="243539952"/>
+        <c:axId val="243541912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162436992"/>
+        <c:axId val="243539952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,13 +3617,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162443264"/>
+        <c:crossAx val="243541912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3634,7 +3630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162443264"/>
+        <c:axId val="243541912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,21 +3653,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162436992"/>
+        <c:crossAx val="243539952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3880,11 +3874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164947456"/>
-        <c:axId val="164949376"/>
+        <c:axId val="243540344"/>
+        <c:axId val="243537208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164947456"/>
+        <c:axId val="243540344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,13 +3900,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164949376"/>
+        <c:crossAx val="243537208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3920,7 +3913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164949376"/>
+        <c:axId val="243537208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3943,21 +3936,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164947456"/>
+        <c:crossAx val="243540344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4170,13 +4161,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47838336"/>
-        <c:axId val="48415872"/>
+        <c:axId val="243535640"/>
+        <c:axId val="243536816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47838336"/>
+        <c:axId val="243535640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48415872"/>
+        <c:crossAx val="243536816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4212,7 +4202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48415872"/>
+        <c:axId val="243536816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47838336"/>
+        <c:crossAx val="243535640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4510,7 +4500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4552,7 +4542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4587,7 +4577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4798,7 +4788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:L211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -8917,7 +8907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
